--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="292">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -621,10 +621,6 @@
     <t>Address.line.extension.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Address.line.extension:streetNameType.extension</t>
   </si>
   <si>
@@ -668,17 +664,13 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ext-1
-</t>
   </si>
   <si>
     <t>Address.line.extension:postBox</t>
@@ -2682,7 +2674,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>107</v>
@@ -2799,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>107</v>
@@ -2916,7 +2908,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>107</v>
@@ -3033,7 +3025,7 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>107</v>
@@ -3150,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>107</v>
@@ -3199,7 +3191,7 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>93</v>
@@ -3265,7 +3257,7 @@
         <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3288,10 +3280,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3403,10 +3395,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3429,16 +3421,16 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3446,49 +3438,49 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>91</v>
@@ -3509,7 +3501,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3520,10 +3512,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3549,10 +3541,10 @@
         <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3583,25 +3575,25 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3610,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>86</v>
@@ -3622,7 +3614,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3633,13 +3625,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3661,13 +3653,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3727,7 +3719,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>107</v>
@@ -3739,7 +3731,7 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -3750,13 +3742,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -3778,13 +3770,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3844,19 +3836,19 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3867,13 +3859,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -3895,13 +3887,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3967,7 +3959,7 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -3984,10 +3976,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4013,10 +4005,10 @@
         <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4040,7 +4032,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>78</v>
@@ -4067,7 +4059,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4099,14 +4091,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4128,10 +4120,10 @@
         <v>92</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4146,7 +4138,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4182,7 +4174,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4197,31 +4189,31 @@
         <v>86</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4243,13 +4235,13 @@
         <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4263,7 +4255,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -4279,7 +4271,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4297,7 +4289,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4315,10 +4307,10 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4329,14 +4321,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4358,10 +4350,10 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4412,7 +4404,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4430,28 +4422,28 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4473,10 +4465,10 @@
         <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4491,7 +4483,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4527,7 +4519,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4542,27 +4534,27 @@
         <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4588,13 +4580,13 @@
         <v>92</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4624,7 +4616,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4642,7 +4634,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4660,24 +4652,24 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4700,17 +4692,17 @@
         <v>115</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4723,7 +4715,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>78</v>
@@ -4759,7 +4751,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4777,13 +4769,13 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -621,6 +621,10 @@
     <t>Address.line.extension.id</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
     <t>Address.line.extension:streetNameType.extension</t>
   </si>
   <si>
@@ -664,13 +668,17 @@
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
   </si>
   <si>
     <t>Address.line.extension:postBox</t>
@@ -2674,7 +2682,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>107</v>
@@ -2791,7 +2799,7 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>107</v>
@@ -2908,7 +2916,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>107</v>
@@ -3025,7 +3033,7 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>107</v>
@@ -3142,7 +3150,7 @@
         <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>107</v>
@@ -3191,7 +3199,7 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>93</v>
@@ -3257,7 +3265,7 @@
         <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3280,10 +3288,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3395,10 +3403,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3421,16 +3429,16 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3438,7 +3446,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>78</v>
@@ -3480,7 +3488,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>91</v>
@@ -3501,7 +3509,7 @@
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3512,10 +3520,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3541,10 +3549,10 @@
         <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3575,7 +3583,7 @@
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3593,7 +3601,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3602,7 +3610,7 @@
         <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>86</v>
@@ -3614,7 +3622,7 @@
         <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3625,13 +3633,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -3653,13 +3661,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3719,7 +3727,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>107</v>
@@ -3731,7 +3739,7 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -3742,13 +3750,13 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -3770,13 +3778,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3836,19 +3844,19 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -3859,13 +3867,13 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>157</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -3887,13 +3895,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3959,7 +3967,7 @@
         <v>107</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -3976,10 +3984,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4005,10 +4013,10 @@
         <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4032,7 +4040,7 @@
         <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s" s="2">
         <v>78</v>
@@ -4059,7 +4067,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4091,14 +4099,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4120,10 +4128,10 @@
         <v>92</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4138,7 +4146,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4174,7 +4182,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4189,31 +4197,31 @@
         <v>86</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4235,13 +4243,13 @@
         <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4255,7 +4263,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -4271,7 +4279,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4289,7 +4297,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4307,10 +4315,10 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4321,14 +4329,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4350,10 +4358,10 @@
         <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4404,7 +4412,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4422,28 +4430,28 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4465,10 +4473,10 @@
         <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4483,7 +4491,7 @@
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4519,7 +4527,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4534,27 +4542,27 @@
         <v>86</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4580,13 +4588,13 @@
         <v>92</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4616,7 +4624,7 @@
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4634,7 +4642,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4652,24 +4660,24 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4692,17 +4700,17 @@
         <v>115</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4715,7 +4723,7 @@
         <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>78</v>
@@ -4751,7 +4759,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4769,13 +4777,13 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4212,7 +4212,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>249</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>276</v>
       </c>
@@ -4791,12 +4791,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO30">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-address-extended.xlsx
+++ b/main/ig/StructureDefinition-as-address-extended.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
